--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDD0F44-FA55-40C9-9F67-020CF6F31FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F399325-DDD4-4034-9DD9-077299173C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\15. taxpayerid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F399325-DDD4-4034-9DD9-077299173C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5859C-2781-4B74-B1B0-6CE1554AD2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>taxPayerId</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>51g6-wa63</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
   </si>
   <si>
     <t>2023-12-31</t>
@@ -622,7 +619,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -848,52 +845,52 @@
         <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -901,31 +898,31 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AP2" s="2"/>
@@ -934,16 +931,16 @@
         <v>49</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\15. taxpayerid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5859C-2781-4B74-B1B0-6CE1554AD2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A3EE2-1C36-4251-A17F-75EE6D0955A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\15. taxpayerid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A3EE2-1C36-4251-A17F-75EE6D0955A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71486B63-CE9E-471B-91D8-B8F486D5A3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>taxPayerId</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,11 +928,11 @@
         <v>71</v>
       </c>
       <c r="AN2" s="2"/>
-      <c r="AP2" s="2"/>
+      <c r="AP2" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="AR2" s="3"/>
       <c r="AS2" s="2" t="s">
         <v>72</v>
       </c>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\15. taxpayerid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71486B63-CE9E-471B-91D8-B8F486D5A3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFE80FF-A237-43D3-BFA6-CF496ABA0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,10 +252,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -929,7 +929,7 @@
       </c>
       <c r="AN2" s="2"/>
       <c r="AP2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="3"/>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFE80FF-A237-43D3-BFA6-CF496ABA0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC5A42-C8AD-4021-97A3-57EAD10B3406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -625,58 +625,57 @@
       <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="39" width="9" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" style="1" customWidth="1"/>
     <col min="41" max="41" width="10" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.21875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="18.44140625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.21875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="8.77734375" style="1" customWidth="1"/>
-    <col min="49" max="53" width="2.6640625" style="1"/>
-    <col min="57" max="16384" width="2.6640625" style="1"/>
+    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="8.7109375" style="1" customWidth="1"/>
+    <col min="49" max="53" width="2.7109375" style="1"/>
+    <col min="57" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,7 +826,7 @@
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC5A42-C8AD-4021-97A3-57EAD10B3406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B8BC04-960E-438C-A6C8-87EAA89723D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B8BC04-960E-438C-A6C8-87EAA89723D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A449C8B-C20A-4ADC-8E4B-26A0BC20765D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -255,14 +255,14 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,6 +275,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,13 +304,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,9 +330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +370,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,8 +629,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +838,7 @@
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="2"/>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A086B514-F519-43F3-9868-2B04207FA2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B55066E-9113-4FAC-B946-EA321DC5F956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -330,9 +330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -370,7 +370,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -476,7 +476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -618,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B55066E-9113-4FAC-B946-EA321DC5F956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD96D8C-7DED-4BF3-89C2-59E4BB71F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD96D8C-7DED-4BF3-89C2-59E4BB71F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8574588-1612-4AB9-A88C-DAC306C557BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
